--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -1,116 +1,241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.0"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="1">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-  </x:cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="HNC_GO_B_HINT_GS"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
-        <a:cs typeface="HNC_GO_B_HINT_GS"/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="HNC_GO_B_HINT_GS"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
-        <a:cs typeface="HNC_GO_B_HINT_GS"/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -163,13 +288,16 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -185,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="63500" dist="45398" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -194,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -203,8 +331,23 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection blurRad="12700" stA="26000" endPos="28000" dist="38100" dir="5400000" sy="-100000" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -259,65 +402,58 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="20000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-    </a:txDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetData/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>대 카테고리</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>세부 카테고리</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>제품 명</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>브랜드 명</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>가격</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>상세 주소</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -1,34 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Documents\graduation\data\collected\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>대 카테고리</t>
+  </si>
+  <si>
+    <t>세부 카테고리</t>
+  </si>
+  <si>
+    <t>브랜드 명</t>
+  </si>
+  <si>
+    <t>제품 명</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>상세 주소</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +80,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,52 +382,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>대 카테고리</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>세부 카테고리</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>제품 명</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>브랜드 명</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>가격</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>상세 주소</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>대 카테고리</t>
   </si>
   <si>
     <t>세부 카테고리</t>
+  </si>
+  <si>
+    <t>제품 번호</t>
   </si>
   <si>
     <t>브랜드 명</t>
@@ -383,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,6 +412,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/collected/datasheet.xlsx
+++ b/collected/datasheet.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
